--- a/public/paid_deals_template.xlsx
+++ b/public/paid_deals_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eman Al-Habashi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\engineering-reef-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C36A72-3F4F-45C5-B9D4-43F2219B1AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED569BD-B869-4A56-B259-BF60581481C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>تاريخ المذكرة</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>أرقام العقارات</t>
+  </si>
+  <si>
+    <t>رقم مهندس المعاملة</t>
+  </si>
+  <si>
+    <t>اسم مهندس المعاملة</t>
   </si>
 </sst>
 </file>
@@ -947,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9137"/>
+  <dimension ref="A1:O9137"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,9 +969,11 @@
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1005,78 +1013,84 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="B2"/>
       <c r="C2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="B3"/>
       <c r="C3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="B4"/>
       <c r="C4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="B5"/>
       <c r="C5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="B6"/>
       <c r="C6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="B7"/>
       <c r="C7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="B8"/>
       <c r="C8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="B9"/>
       <c r="C9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="B10"/>
       <c r="C10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="B11"/>
       <c r="C11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="B12"/>
       <c r="C12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="B13"/>
       <c r="C13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="B14"/>
       <c r="C14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="B15"/>
       <c r="C15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="B16"/>
       <c r="C16"/>
       <c r="F16"/>
@@ -10209,12 +10223,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ff85abbf-a915-401e-9f68-cf69f4fbb3c8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd605e1c-9bb1-4df4-957d-ee44c043b246">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10401,20 +10417,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ff85abbf-a915-401e-9f68-cf69f4fbb3c8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd605e1c-9bb1-4df4-957d-ee44c043b246">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B643478-E3FB-4BE7-933D-A87F6867A277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194FF276-31D2-4EFF-B5B1-40CFADF26D02}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ff85abbf-a915-401e-9f68-cf69f4fbb3c8"/>
+    <ds:schemaRef ds:uri="fd605e1c-9bb1-4df4-957d-ee44c043b246"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10439,12 +10456,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194FF276-31D2-4EFF-B5B1-40CFADF26D02}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B643478-E3FB-4BE7-933D-A87F6867A277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ff85abbf-a915-401e-9f68-cf69f4fbb3c8"/>
-    <ds:schemaRef ds:uri="fd605e1c-9bb1-4df4-957d-ee44c043b246"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>